--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_16_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_16_2.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_0</t>
+          <t>model_16_2_18</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999759874411003</v>
+        <v>0.9999581758454145</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9989957830540048</v>
+        <v>0.9991205041925408</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999232844630184</v>
+        <v>0.9999589802467235</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999799576546677</v>
+        <v>0.9998370492819172</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999539477993388</v>
+        <v>0.9999062036592004</v>
       </c>
       <c r="G2" t="n">
-        <v>2.241466970339837e-05</v>
+        <v>3.904101243741967e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009373924390570793</v>
+        <v>0.0008209707308590118</v>
       </c>
       <c r="I2" t="n">
-        <v>4.924337260663852e-05</v>
+        <v>5.896776175367752e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>1.504315014494735e-05</v>
+        <v>0.0001841461134767884</v>
       </c>
       <c r="K2" t="n">
-        <v>3.214326137579294e-05</v>
+        <v>0.000121556937615233</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005059739722753262</v>
+        <v>0.0003945504541445721</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004734413343107926</v>
+        <v>0.006248280758530275</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000064033490399</v>
+        <v>1.000111531078895</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004935967120710728</v>
+        <v>0.006514283006145175</v>
       </c>
       <c r="P2" t="n">
-        <v>87.41158983196382</v>
+        <v>86.3017957268402</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.6344920526144</v>
+        <v>126.5246979474908</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_1</t>
+          <t>model_16_2_17</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999359150098422</v>
+        <v>0.999959025453615</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9989450694886066</v>
+        <v>0.9991204963860135</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9995869391711373</v>
+        <v>0.9999605221222952</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999398347082684</v>
+        <v>0.9998396563685755</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9997777138466438</v>
+        <v>0.9999081954977621</v>
       </c>
       <c r="G3" t="n">
-        <v>5.982052530629452e-05</v>
+        <v>3.824794047560583e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009847313262880734</v>
+        <v>0.0008209780179095219</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002651419660893353</v>
+        <v>5.675124546315891e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>4.515816397877654e-05</v>
+        <v>0.0001811999167291956</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001551500650340559</v>
+        <v>0.0001189755810961772</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0006870051259997309</v>
+        <v>0.0003940070652873748</v>
       </c>
       <c r="M3" t="n">
-        <v>0.007734372974346047</v>
+        <v>0.006184491933506408</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000170893307087</v>
+        <v>1.000109265457026</v>
       </c>
       <c r="O3" t="n">
-        <v>0.008063641244223202</v>
+        <v>0.00644777855877897</v>
       </c>
       <c r="P3" t="n">
-        <v>85.44832344670354</v>
+        <v>86.34284168583274</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.6712256673542</v>
+        <v>126.5657439064834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_2</t>
+          <t>model_16_2_19</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999280234075519</v>
+        <v>0.9999573899570237</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9989291218490113</v>
+        <v>0.9991204870832592</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9995226734656014</v>
+        <v>0.9999575383790903</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999321696014991</v>
+        <v>0.9998346731183846</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9997440413653861</v>
+        <v>0.9999043679688669</v>
       </c>
       <c r="G4" t="n">
-        <v>6.71869896429754e-05</v>
+        <v>3.977460475373676e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009996177478298254</v>
+        <v>0.0008209867016224193</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0003063938455396081</v>
+        <v>6.104051208201875e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>5.091135054931161e-05</v>
+        <v>0.000186831350367146</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001786525980444598</v>
+        <v>0.0001239359312245824</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0007137997295009608</v>
+        <v>0.0003950389516586054</v>
       </c>
       <c r="M4" t="n">
-        <v>0.008196767023831738</v>
+        <v>0.006306711088494284</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000191937579862</v>
+        <v>1.00011362678127</v>
       </c>
       <c r="O4" t="n">
-        <v>0.008545720365683136</v>
+        <v>0.006575200836223209</v>
       </c>
       <c r="P4" t="n">
-        <v>85.21606187136534</v>
+        <v>86.26456384168459</v>
       </c>
       <c r="Q4" t="n">
-        <v>125.438964092016</v>
+        <v>126.4874660623352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_3</t>
+          <t>model_16_2_16</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999212029013078</v>
+        <v>0.9999599398304748</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9989149526631945</v>
+        <v>0.9991204603550562</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9994659635049346</v>
+        <v>0.9999621620706418</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999255267681456</v>
+        <v>0.9998425222782227</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9997143928751259</v>
+        <v>0.9999103545754926</v>
       </c>
       <c r="G5" t="n">
-        <v>7.355363283627731e-05</v>
+        <v>3.739440981349571e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001012844060834458</v>
+        <v>0.000821011651226692</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003427957249176889</v>
+        <v>5.439374509644986e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>5.589725104486846e-05</v>
+        <v>0.0001779612312585013</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001993464879812787</v>
+        <v>0.0001161774881774756</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0007334749841214376</v>
+        <v>0.0003934063597303935</v>
       </c>
       <c r="M5" t="n">
-        <v>0.008576341459869546</v>
+        <v>0.006115096876869222</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000210125596513</v>
+        <v>1.000106827118734</v>
       </c>
       <c r="O5" t="n">
-        <v>0.008941454071290478</v>
+        <v>0.006375429210913168</v>
       </c>
       <c r="P5" t="n">
-        <v>85.03499143878641</v>
+        <v>86.38797866988592</v>
       </c>
       <c r="Q5" t="n">
-        <v>125.257893659437</v>
+        <v>126.6108808905365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_4</t>
+          <t>model_16_2_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999149764115407</v>
+        <v>0.9999566663082116</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9989011079592234</v>
+        <v>0.9991204553945384</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9994155397204322</v>
+        <v>0.9999561981824785</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999193499713132</v>
+        <v>0.9998325097177786</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9996878855180334</v>
+        <v>0.9999026814313726</v>
       </c>
       <c r="G6" t="n">
-        <v>7.936578772255844e-05</v>
+        <v>4.045009915527327e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001025767484279261</v>
+        <v>0.0008210162816522309</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000375162534904098</v>
+        <v>6.29671056911294e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>6.053335927600008e-05</v>
+        <v>0.00018927614974077</v>
       </c>
       <c r="K6" t="n">
-        <v>0.000217847947090049</v>
+        <v>0.0001261216277159497</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007519420708208899</v>
+        <v>0.0003954669044289579</v>
       </c>
       <c r="M6" t="n">
-        <v>0.008908747820123681</v>
+        <v>0.006360039241645705</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000226729569225</v>
+        <v>1.000115556511436</v>
       </c>
       <c r="O6" t="n">
-        <v>0.009288011658476657</v>
+        <v>0.006630799279258782</v>
       </c>
       <c r="P6" t="n">
-        <v>84.88288633535032</v>
+        <v>86.23088292631624</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.105788556001</v>
+        <v>126.4537851469669</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_5</t>
+          <t>model_16_2_21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999097881072758</v>
+        <v>0.9999559988599598</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9988891315419506</v>
+        <v>0.9991204146685285</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9993726215348269</v>
+        <v>0.9999549650084738</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999139489591369</v>
+        <v>0.9998305623807391</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9996652465623376</v>
+        <v>0.9999011484538947</v>
       </c>
       <c r="G7" t="n">
-        <v>8.420884201359054e-05</v>
+        <v>4.107313280069149e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00103694694409945</v>
+        <v>0.000821054297594802</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0004027115333015046</v>
+        <v>6.473984943280203e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>6.458718809471162e-05</v>
+        <v>0.0001914767816352681</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0002336493606981081</v>
+        <v>0.0001281083155340351</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000763845059109729</v>
+        <v>0.0003958872133823748</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00917653758307514</v>
+        <v>0.006408832405414538</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000240565047265</v>
+        <v>1.000117336373441</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00956720178603819</v>
+        <v>0.006681669669025027</v>
       </c>
       <c r="P7" t="n">
-        <v>84.76442126038296</v>
+        <v>86.20031270673068</v>
       </c>
       <c r="Q7" t="n">
-        <v>124.9873234810336</v>
+        <v>126.4232149273813</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_6</t>
+          <t>model_16_2_15</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999904916032739</v>
+        <v>0.9999609176172282</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9988774831619589</v>
+        <v>0.9991203804940954</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9993332977588382</v>
+        <v>0.9999638943508083</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999080621314141</v>
+        <v>0.9998456453321442</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999643999203534</v>
+        <v>0.9999126769764145</v>
       </c>
       <c r="G8" t="n">
-        <v>8.875670973433737e-05</v>
+        <v>3.648168879918082e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001047820195516852</v>
+        <v>0.0008210861979281566</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004279532956550615</v>
+        <v>5.190351353745604e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>6.90056546884465e-05</v>
+        <v>0.0001744319541335214</v>
       </c>
       <c r="K8" t="n">
-        <v>0.000248479475171754</v>
+        <v>0.0001131677338354887</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007730721710941271</v>
+        <v>0.0003927486590149283</v>
       </c>
       <c r="M8" t="n">
-        <v>0.009421077949700733</v>
+        <v>0.006040007350921091</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000253557246029</v>
+        <v>1.000104219687391</v>
       </c>
       <c r="O8" t="n">
-        <v>0.009822152742339378</v>
+        <v>0.006297142968388679</v>
       </c>
       <c r="P8" t="n">
-        <v>84.65922305965213</v>
+        <v>86.43740019998495</v>
       </c>
       <c r="Q8" t="n">
-        <v>124.8821252803027</v>
+        <v>126.6603024206356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_7</t>
+          <t>model_16_2_22</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999009198308064</v>
+        <v>0.9999553889761764</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9988680550122176</v>
+        <v>0.9991203647429716</v>
       </c>
       <c r="D9" t="n">
-        <v>0.999299473431583</v>
+        <v>0.9999538209758428</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999024222616247</v>
+        <v>0.9998287720341056</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9996254134257011</v>
+        <v>0.9998997333634355</v>
       </c>
       <c r="G9" t="n">
-        <v>9.248698882540008e-05</v>
+        <v>4.164243254166469e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001056620959452336</v>
+        <v>0.0008211009009107745</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0004496649855646547</v>
+        <v>6.638444839388689e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>7.323876247268446e-05</v>
+        <v>0.0001935000030007135</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002614518740186696</v>
+        <v>0.0001299422256973002</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0007745461833535903</v>
+        <v>0.0003962342291248201</v>
       </c>
       <c r="M9" t="n">
-        <v>0.009617015588289335</v>
+        <v>0.006453094803399737</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000264213784516</v>
+        <v>1.000118962730196</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01002643185184953</v>
+        <v>0.006727816408928251</v>
       </c>
       <c r="P9" t="n">
-        <v>84.57688516937331</v>
+        <v>86.17278179507215</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.7997873900239</v>
+        <v>126.3956840157228</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_8</t>
+          <t>model_16_2_23</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998978924256139</v>
+        <v>0.9999548292966062</v>
       </c>
       <c r="C10" t="n">
-        <v>0.998861871215447</v>
+        <v>0.9991203108489904</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9992716927362777</v>
+        <v>0.9999527639860326</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998968520862532</v>
+        <v>0.9998271600590292</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9996096441488816</v>
+        <v>0.9998984443181843</v>
       </c>
       <c r="G10" t="n">
-        <v>9.531293868496941e-05</v>
+        <v>4.216486885340538e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001062393262300426</v>
+        <v>0.0008211512085764996</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004674972941688672</v>
+        <v>6.790391933965981e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>7.741955983235213e-05</v>
+        <v>0.0001953216515876666</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0002724584270006096</v>
+        <v>0.0001316127854636632</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0007688015833791573</v>
+        <v>0.0003965646957501865</v>
       </c>
       <c r="M10" t="n">
-        <v>0.009762834561999369</v>
+        <v>0.006493448148203339</v>
       </c>
       <c r="N10" t="n">
-        <v>1.00027228686503</v>
+        <v>1.00012045520905</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01017845864115728</v>
+        <v>0.006769887679163082</v>
       </c>
       <c r="P10" t="n">
-        <v>84.51668997715348</v>
+        <v>86.14784635052273</v>
       </c>
       <c r="Q10" t="n">
-        <v>124.7395921978041</v>
+        <v>126.3707485711734</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_9</t>
+          <t>model_16_2_24</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998950938414803</v>
+        <v>0.9999543176079592</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9988572651215722</v>
+        <v>0.9991202560829331</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9992458399265206</v>
+        <v>0.9999518014919003</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998907936027429</v>
+        <v>0.9998256963269764</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9995944988152002</v>
+        <v>0.9998972723157484</v>
       </c>
       <c r="G11" t="n">
-        <v>9.792529412990906e-05</v>
+        <v>4.264250774485009e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001066692848748434</v>
+        <v>0.0008212023302870588</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0004840921013472502</v>
+        <v>6.928754844878369e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>8.196686582801609e-05</v>
+        <v>0.0001969757748211463</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002830294835876331</v>
+        <v>0.000133131661634965</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0007613379026105299</v>
+        <v>0.0003968679512804192</v>
       </c>
       <c r="M11" t="n">
-        <v>0.009895721001013977</v>
+        <v>0.006530123103345762</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000279749756052</v>
+        <v>1.000121819712109</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01031700233099359</v>
+        <v>0.006808123963073541</v>
       </c>
       <c r="P11" t="n">
-        <v>84.46261134958519</v>
+        <v>86.1253179356172</v>
       </c>
       <c r="Q11" t="n">
-        <v>124.6855135702358</v>
+        <v>126.3482201562678</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_10</t>
+          <t>model_16_2_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998928975486623</v>
+        <v>0.9999619620406415</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9988550775227474</v>
+        <v>0.9991202510536026</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9992243035624863</v>
+        <v>0.9999657186153433</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9998851117043102</v>
+        <v>0.9998490697826403</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9995815407826196</v>
+        <v>0.9999151818016458</v>
       </c>
       <c r="G12" t="n">
-        <v>9.997543706953543e-05</v>
+        <v>3.550676538770957e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001068734876226931</v>
+        <v>0.0008212070249463501</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0004979162006166316</v>
+        <v>4.928105026363252e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>8.623151898192427e-05</v>
+        <v>0.0001705620770499445</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002920738597992779</v>
+        <v>0.0001099215636567885</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0007499417054961634</v>
+        <v>0.0003920110989772853</v>
       </c>
       <c r="M12" t="n">
-        <v>0.009998771778050313</v>
+        <v>0.005958755355584718</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000285606536901</v>
+        <v>1.000101434558289</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01042444019295288</v>
+        <v>0.006212431907396019</v>
       </c>
       <c r="P12" t="n">
-        <v>84.4211720629053</v>
+        <v>86.49157461067639</v>
       </c>
       <c r="Q12" t="n">
-        <v>124.6440742835559</v>
+        <v>126.714476831327</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_11</t>
+          <t>model_16_2_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9998910978676959</v>
+        <v>0.9999630668758721</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9988542660314047</v>
+        <v>0.9991200520450688</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9992051829234357</v>
+        <v>0.9999676060654447</v>
       </c>
       <c r="E13" t="n">
-        <v>0.999880068784353</v>
+        <v>0.9998528041237039</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9995700371301793</v>
+        <v>0.9999178567820594</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001016553602547565</v>
+        <v>3.447545019656712e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00106949236777492</v>
+        <v>0.0008213927906771844</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0005101896564286814</v>
+        <v>4.656775486303849e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>9.001657511314745e-05</v>
+        <v>0.0001663420011807747</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0003001031157709144</v>
+        <v>0.0001064548780219066</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0007355670273286805</v>
+        <v>0.0003912007198393201</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01008242829157522</v>
+        <v>0.005871579872280298</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000290405686144</v>
+        <v>1.000098488331008</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01051165813745141</v>
+        <v>0.006121545183289201</v>
       </c>
       <c r="P13" t="n">
-        <v>84.38784457363657</v>
+        <v>86.55052615146306</v>
       </c>
       <c r="Q13" t="n">
-        <v>124.6107467942872</v>
+        <v>126.7734283721137</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9998892498973226</v>
+        <v>0.9999642263478493</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9988537741472624</v>
+        <v>0.9991197663420682</v>
       </c>
       <c r="D14" t="n">
-        <v>0.999186804698601</v>
+        <v>0.9999695345167773</v>
       </c>
       <c r="E14" t="n">
-        <v>0.999874841602406</v>
+        <v>0.9998568711495035</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9995587757869288</v>
+        <v>0.999920699551881</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001033803594816864</v>
+        <v>3.33931340008487e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0010699515200306</v>
+        <v>0.0008216594818873159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0005219865597548203</v>
+        <v>4.379551832684257e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>9.393993246282621e-05</v>
+        <v>0.0001617459674643746</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0003079632461088233</v>
+        <v>0.0001027707428956086</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0007267666072447696</v>
+        <v>0.0003903355729408498</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01016761326377466</v>
+        <v>0.005778679260942651</v>
       </c>
       <c r="N14" t="n">
-        <v>1.00029533360714</v>
+        <v>1.000095396405735</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01060046961027458</v>
+        <v>0.006024689600596133</v>
       </c>
       <c r="P14" t="n">
-        <v>84.35419112183557</v>
+        <v>86.61432049590131</v>
       </c>
       <c r="Q14" t="n">
-        <v>124.5770933424862</v>
+        <v>126.8372227165519</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_13</t>
+          <t>model_16_2_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9998873221649551</v>
+        <v>0.9999654330012356</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9988530351952686</v>
+        <v>0.9991193616509668</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9991681913800737</v>
+        <v>0.999971474469198</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999869814678061</v>
+        <v>0.9998612809310448</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9995475140148592</v>
+        <v>0.9999236981405746</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001051798130290799</v>
+        <v>3.226677603068313e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001070641299280516</v>
+        <v>0.0008220372432665692</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0005339343687091594</v>
+        <v>4.100674845340547e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>9.771298279377085e-05</v>
+        <v>0.000156762594935264</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0003158236757514651</v>
+        <v>9.888467169433471e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0007189812709954034</v>
+        <v>0.0003893520939900322</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01025572099021224</v>
+        <v>0.005680385200906989</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000300474226786</v>
+        <v>1.000092178663372</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01069232826503474</v>
+        <v>0.005922210958927998</v>
       </c>
       <c r="P15" t="n">
-        <v>84.31967833486544</v>
+        <v>86.68294492594984</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.5425805555161</v>
+        <v>126.9058471466005</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_14</t>
+          <t>model_16_2_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9998857107084895</v>
+        <v>0.9999666680367519</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9988526147268448</v>
+        <v>0.9991188119829343</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9991518789735557</v>
+        <v>0.9999733747933905</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9998657798985289</v>
+        <v>0.9998660534533662</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9995378437178559</v>
+        <v>0.9999268329040493</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001066840369049642</v>
+        <v>3.111392458793399e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001071033788097682</v>
+        <v>0.0008225503342472937</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0005444052321598111</v>
+        <v>3.827494596095613e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001007413606257199</v>
+        <v>0.0001513692990521772</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0003225732963927654</v>
+        <v>9.482212250656667e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0007100916246737369</v>
+        <v>0.0003883074713194082</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01032879648869916</v>
+        <v>0.005577985710624758</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000304771444028</v>
+        <v>1.000088885235328</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01076851473877939</v>
+        <v>0.005815452110348287</v>
       </c>
       <c r="P16" t="n">
-        <v>84.29127803622508</v>
+        <v>86.75571020607296</v>
       </c>
       <c r="Q16" t="n">
-        <v>124.5141802568757</v>
+        <v>126.9786124267236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_15</t>
+          <t>model_16_2_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9998842392334053</v>
+        <v>0.9999679165164971</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9988523043872696</v>
+        <v>0.9991180745277388</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9991372693334041</v>
+        <v>0.9999751795400923</v>
       </c>
       <c r="E17" t="n">
-        <v>0.999862100493781</v>
+        <v>0.9998712237228718</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9995291474761189</v>
+        <v>0.9999300880742155</v>
       </c>
       <c r="G17" t="n">
-        <v>0.000108057594305763</v>
+        <v>2.994852354780478e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001071323476468848</v>
+        <v>0.0008232387163017551</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0005537830972174424</v>
+        <v>3.568054046035253e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001035030053907625</v>
+        <v>0.0001455265200433364</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0003286430513041025</v>
+        <v>9.060353025184448e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0007013683058998722</v>
+        <v>0.0003871679920131081</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01039507548340862</v>
+        <v>0.005472524421855492</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000308695377586</v>
+        <v>1.000085555956008</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01083761536751006</v>
+        <v>0.005705501116181148</v>
       </c>
       <c r="P17" t="n">
-        <v>84.26569238474941</v>
+        <v>86.83206106370639</v>
       </c>
       <c r="Q17" t="n">
-        <v>124.4885946054</v>
+        <v>127.054963284357</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_16</t>
+          <t>model_16_2_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9998827776815034</v>
+        <v>0.9999691463179526</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9988518044861647</v>
+        <v>0.9991171004911522</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9991234387079262</v>
+        <v>0.9999767983907911</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9998585757521878</v>
+        <v>0.9998767532436605</v>
       </c>
       <c r="F18" t="n">
-        <v>0.999520892605405</v>
+        <v>0.9999333967743076</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001094218888515058</v>
+        <v>2.880055787109612e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001071790112207165</v>
+        <v>0.0008241479367000317</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0005626609161128669</v>
+        <v>3.335336892225732e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001061485648863447</v>
+        <v>0.0001392777610651133</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0003344047404996058</v>
+        <v>8.631556499368532e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0006933142455752972</v>
+        <v>0.0003859204909890292</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01046049180734375</v>
+        <v>0.005366615122318361</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000312592849324</v>
+        <v>1.00008227648546</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01090581659978557</v>
+        <v>0.005595083038500249</v>
       </c>
       <c r="P18" t="n">
-        <v>84.2405992141607</v>
+        <v>86.91023160097163</v>
       </c>
       <c r="Q18" t="n">
-        <v>124.4635014348113</v>
+        <v>127.1331338216222</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_17</t>
+          <t>model_16_2_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9998815699503327</v>
+        <v>0.9999703254971738</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9988515245454851</v>
+        <v>0.9991158206017238</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999111750844102</v>
+        <v>0.9999781291337566</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9998557368195826</v>
+        <v>0.9998826879878531</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9995139917784391</v>
+        <v>0.999936722359023</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001105492528860561</v>
+        <v>2.769984582816957e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001072051424543548</v>
+        <v>0.0008253426573008105</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0005701633055363842</v>
+        <v>3.144036535980886e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.000108279377858782</v>
+        <v>0.0001325710702913959</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003392213416975831</v>
+        <v>8.200571782560237e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0006851328848946555</v>
+        <v>0.0003845496377774231</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01051424048070312</v>
+        <v>0.005263064300212336</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000315813465779</v>
+        <v>1.000079132007537</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01096185346544493</v>
+        <v>0.005487123843517417</v>
       </c>
       <c r="P19" t="n">
-        <v>84.22009881767566</v>
+        <v>86.98816742111305</v>
       </c>
       <c r="Q19" t="n">
-        <v>124.4430010383263</v>
+        <v>127.2110696417637</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_18</t>
+          <t>model_16_2_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9998803361318657</v>
+        <v>0.9999713997617988</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9988509945409081</v>
+        <v>0.9991141637793571</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9991003888223858</v>
+        <v>0.9999790223207168</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9998530135527929</v>
+        <v>0.9998889971107932</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9995073029733658</v>
+        <v>0.999939968492792</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001117009682666991</v>
+        <v>2.669706695543302e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001072546160551675</v>
+        <v>0.0008268892282539818</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0005774565383149283</v>
+        <v>3.015636846422157e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001103233757305006</v>
+        <v>0.0001254413044178754</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0003438899570227144</v>
+        <v>7.779883644104847e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0006778153025121167</v>
+        <v>0.0003831143612803933</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01056886788008532</v>
+        <v>0.005166920451819732</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000319103648358</v>
+        <v>1.00007626730187</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01101880646631314</v>
+        <v>0.005386886952453537</v>
       </c>
       <c r="P20" t="n">
-        <v>84.19937036693844</v>
+        <v>87.06191370089734</v>
       </c>
       <c r="Q20" t="n">
-        <v>124.4222725875891</v>
+        <v>127.284815921548</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_19</t>
+          <t>model_16_2_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9998793030543758</v>
+        <v>0.9999723070127275</v>
       </c>
       <c r="C21" t="n">
-        <v>0.998850626169045</v>
+        <v>0.9991120253687193</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9990907704446613</v>
+        <v>0.9999793020163497</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998507880586234</v>
+        <v>0.9998956722025675</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9995016835841216</v>
+        <v>0.9999430339311792</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001126653007566417</v>
+        <v>2.585018803714007e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001072890019516263</v>
+        <v>0.0008288853407190174</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0005836305335288479</v>
+        <v>2.975429326565689e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001119937612259946</v>
+        <v>0.0001178979672554776</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0003478121473774212</v>
+        <v>7.382613026056726e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0006706189100946887</v>
+        <v>0.0003815326316879321</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01061439120989243</v>
+        <v>0.005084308019498826</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000321858521665</v>
+        <v>1.00007384796606</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01106626781851643</v>
+        <v>0.00530075753785742</v>
       </c>
       <c r="P21" t="n">
-        <v>84.18217814936924</v>
+        <v>87.12638536574454</v>
       </c>
       <c r="Q21" t="n">
-        <v>124.4050803700198</v>
+        <v>127.3492875863951</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_20</t>
+          <t>model_16_2_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9998783073267979</v>
+        <v>0.999972960187969</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9988501743651615</v>
+        <v>0.9991092875045933</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9990817718674313</v>
+        <v>0.9999787298999134</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9998487284441512</v>
+        <v>0.999902678446945</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9994964383857138</v>
+        <v>0.9999457713163233</v>
       </c>
       <c r="G22" t="n">
-        <v>0.000113594768743107</v>
+        <v>2.524047762032227e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001073311758609563</v>
+        <v>0.0008314410167023103</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0005894066814762063</v>
+        <v>3.057673667423437e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001135396426700665</v>
+        <v>0.0001099804036671794</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0003514731620731364</v>
+        <v>7.027857017070685e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0006640061464967055</v>
+        <v>0.0003853509778692454</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01065808466578808</v>
+        <v>0.005023990209019348</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000324513795205</v>
+        <v>1.000072106165416</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01111182139528747</v>
+        <v>0.005237871873310749</v>
       </c>
       <c r="P22" t="n">
-        <v>84.16574620506827</v>
+        <v>87.17412319463932</v>
       </c>
       <c r="Q22" t="n">
-        <v>124.3886484257189</v>
+        <v>127.3970254152899</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_21</t>
+          <t>model_16_2_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9998773393104925</v>
+        <v>0.9999732475553639</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9988496872279982</v>
+        <v>0.9991057881732668</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9990732718397214</v>
+        <v>0.9999770094011996</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998467984481437</v>
+        <v>0.9999099404653725</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9994914921268166</v>
+        <v>0.9999479832988716</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001144983694732231</v>
+        <v>2.497223277118714e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00107376647976867</v>
+        <v>0.0008347074888926864</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0005948628126349511</v>
+        <v>3.305003185888192e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001149882365964736</v>
+        <v>0.0001017737968772901</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0003549255246157123</v>
+        <v>6.741191436808603e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0006579494450199706</v>
+        <v>0.0004055032740459315</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01070039108973233</v>
+        <v>0.004997222505671239</v>
       </c>
       <c r="N23" t="n">
-        <v>1.00032709517202</v>
+        <v>1.000071339852363</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0111559288912854</v>
+        <v>0.005209964613414327</v>
       </c>
       <c r="P23" t="n">
-        <v>84.14989995095982</v>
+        <v>87.19549207904178</v>
       </c>
       <c r="Q23" t="n">
-        <v>124.3728021716104</v>
+        <v>127.4183942996924</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_22</t>
+          <t>model_16_2_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9998764973691289</v>
+        <v>0.9999730343309873</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9988492785803935</v>
+        <v>0.9991013377007946</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9990659979380768</v>
+        <v>0.9999737674420521</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998451232033316</v>
+        <v>0.9999174025172601</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9994872466479865</v>
+        <v>0.9999494386584876</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001152842847792248</v>
+        <v>2.517126836735877e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001074147934370124</v>
+        <v>0.0008388618095924152</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0005995318987560024</v>
+        <v>3.771049564416554e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000116245622337502</v>
+        <v>9.334113778975062e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0003578887605467521</v>
+        <v>6.552581671695808e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0006522796864299468</v>
+        <v>0.000427984280159716</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0107370519594172</v>
+        <v>0.005017097603929863</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00032934034899</v>
+        <v>1.000071908450701</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01119415049009122</v>
+        <v>0.005230685835752945</v>
       </c>
       <c r="P24" t="n">
-        <v>84.13621887702212</v>
+        <v>87.17961471611626</v>
       </c>
       <c r="Q24" t="n">
-        <v>124.3591210976727</v>
+        <v>127.4025169367669</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_23</t>
+          <t>model_16_2_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.999875770438002</v>
+        <v>0.9999721460513054</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9988489408175741</v>
+        <v>0.9990956935529407</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9990596798382083</v>
+        <v>0.99996852952544</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998437024365417</v>
+        <v>0.9999249672240828</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9994835774998105</v>
+        <v>0.9999498317716415</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0001159628430775868</v>
+        <v>2.600043845939863e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001074463221135953</v>
+        <v>0.0008441303738645477</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0006035874598357004</v>
+        <v>4.52402391017545e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001173120049283171</v>
+        <v>8.479247119062926e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0003604497323820088</v>
+        <v>6.501635514619188e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0006469165123927685</v>
+        <v>0.0004530775750806799</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01076860450929399</v>
+        <v>0.005099062507892861</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000331278831995</v>
+        <v>1.000074277196519</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01122704629733904</v>
+        <v>0.00531614015536839</v>
       </c>
       <c r="P25" t="n">
-        <v>84.12448147293487</v>
+        <v>87.11479431252391</v>
       </c>
       <c r="Q25" t="n">
-        <v>124.3473836935855</v>
+        <v>127.3376965331746</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_16_2_24</t>
+          <t>model_16_2_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.999875096389173</v>
+        <v>0.9999703649311655</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9988486003343272</v>
+        <v>0.9990885809318225</v>
       </c>
       <c r="D26" t="n">
-        <v>0.999053953952423</v>
+        <v>0.9999607204623387</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998424214610278</v>
+        <v>0.9999324762404256</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9994802558303614</v>
+        <v>0.9999487745874078</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001165920380721403</v>
+        <v>2.766303592778181e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001074781047301391</v>
+        <v>0.0008507696934703048</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0006072628812473687</v>
+        <v>5.646612262604158e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001182734646113277</v>
+        <v>7.630673886716092e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0003627681729293482</v>
+        <v>6.638643074660125e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0006420770402963042</v>
+        <v>0.0004810470709400003</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01079777931206877</v>
+        <v>0.00525956613493754</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000333076295538</v>
+        <v>1.000079026850225</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01125746313186812</v>
+        <v>0.005483476754104672</v>
       </c>
       <c r="P26" t="n">
-        <v>84.11365914098957</v>
+        <v>86.99082695794671</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.3365613616402</v>
+        <v>127.2137291785973</v>
       </c>
     </row>
   </sheetData>
